--- a/files/formato_ordenes.xlsx
+++ b/files/formato_ordenes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>email</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t xml:space="preserve">telefono </t>
+  </si>
+  <si>
+    <t>fecha*</t>
   </si>
 </sst>
 </file>
@@ -369,56 +372,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/files/formato_ordenes.xlsx
+++ b/files/formato_ordenes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>email</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>order_nro*</t>
-  </si>
-  <si>
-    <t>total *</t>
   </si>
   <si>
     <t>direccion destino *</t>
@@ -372,31 +369,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -420,12 +417,9 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/files/formato_ordenes.xlsx
+++ b/files/formato_ordenes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -51,20 +51,26 @@
     <t xml:space="preserve">telefono </t>
   </si>
   <si>
-    <t>fecha*</t>
+    <t>BPL-5000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,61 +376,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/formato_ordenes.xlsx
+++ b/files/formato_ordenes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>email</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t xml:space="preserve">telefono </t>
-  </si>
-  <si>
-    <t>BPL-5000</t>
   </si>
 </sst>
 </file>
@@ -379,7 +376,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,9 +424,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/formato_ordenes.xlsx
+++ b/files/formato_ordenes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>email</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t xml:space="preserve">telefono </t>
+  </si>
+  <si>
+    <t>observacion</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,10 +391,11 @@
     <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -414,16 +418,19 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
   </sheetData>
